--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Properties/PricingStructureProperties.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Properties/PricingStructureProperties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Properties\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Properties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A4AE09-A877-4638-A097-1079227FE250}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85C6EC4-82D5-48E7-A5D9-23E06A7D0148}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="15" windowWidth="15195" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="0" windowWidth="26370" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PricingStructureProperties" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,15 @@
     <definedName name="IRCurve3m">[1]IRBootstrap3m!$D$5</definedName>
     <definedName name="IRCurve6m">[1]IRBootstrap6m!$D$5</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2097,8 +2105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
